--- a/instruction format.xlsx
+++ b/instruction format.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Project/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學\學科\108-2\108-2數位系統設計\Final Project\108-2DSD_Final_Project-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C9712A-E707-FF43-A020-10631034240F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802220FE-CE6B-4573-A469-1A347FDE90D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="480" windowWidth="24820" windowHeight="14840" xr2:uid="{B1953EC8-38C7-3F45-9A9D-9DA1252CCBAF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{B1953EC8-38C7-3F45-9A9D-9DA1252CCBAF}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Compression" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="168">
   <si>
     <t>add</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +368,332 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instructions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decompression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.ANDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.MV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.ADDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.NOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.SLLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.SRLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.SRAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.LW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.BEQZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.BNEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.JAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.JR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.JALR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[5:3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[6]</t>
+  </si>
+  <si>
+    <t>offset[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1'</t>
+  </si>
+  <si>
+    <t>rs1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw rd',offset(rs1')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero-extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw rs2',offset(rs1')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd/rs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add rd,rd,rs2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs2!=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal x1,offset[11:1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jalr x1,rs1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq rs1',x0,offset[8:1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store pc+2 to x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne rs1',x0,offset[8:1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nzimm[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nzimm[4:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi rd,rd,nzimm[5:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shamt[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd'/rs1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shamt[4:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srli rd',rd',shamt[5:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srai rd',rd',shamt[5:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slli rd',rd',shamt[5:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm[4:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>andi rd',rd',imm[5:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi x0,x0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add rd,x0,rs2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal x0,offset[11:1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jalr x0,rs1,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,6 +716,19 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -419,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,6 +775,21 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,6 +797,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,80 +1139,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A79953-F646-1D44-BB59-3C46C22D6EBA}">
   <dimension ref="A1:AR25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="92" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC21" sqref="AC21:AI21"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="35" width="7.33203125" customWidth="1"/>
-    <col min="36" max="36" width="10.83203125" customWidth="1"/>
-    <col min="44" max="44" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.77734375" customWidth="1"/>
+    <col min="44" max="44" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5" t="s">
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5" t="s">
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="5"/>
+      <c r="AQ1" s="10"/>
       <c r="AR1" s="1"/>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="D2">
         <v>31</v>
       </c>
@@ -909,15 +1288,15 @@
       <c r="AB2">
         <v>7</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
       <c r="AJ2" t="s">
         <v>55</v>
       </c>
@@ -943,64 +1322,64 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5" t="s">
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="7" t="s">
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
       <c r="AJ3">
         <v>1</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="10" t="s">
         <v>81</v>
       </c>
       <c r="AM3" s="3"/>
@@ -1008,58 +1387,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5" t="s">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5" t="s">
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="7" t="s">
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
       <c r="AJ4">
         <v>1</v>
       </c>
-      <c r="AK4" s="5"/>
+      <c r="AK4" s="10"/>
       <c r="AM4" s="3"/>
       <c r="AP4">
         <v>1</v>
@@ -1068,176 +1447,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5" t="s">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5" t="s">
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="7" t="s">
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
       <c r="AJ5">
         <v>1</v>
       </c>
-      <c r="AK5" s="5"/>
+      <c r="AK5" s="10"/>
       <c r="AM5" s="3"/>
       <c r="AQ5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5" t="s">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5" t="s">
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="7" t="s">
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
       <c r="AJ6">
         <v>1</v>
       </c>
-      <c r="AK6" s="5"/>
+      <c r="AK6" s="10"/>
       <c r="AM6" s="3"/>
       <c r="AQ6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5" t="s">
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="7" t="s">
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
       <c r="AJ7">
         <v>1</v>
       </c>
-      <c r="AK7" s="5"/>
+      <c r="AK7" s="10"/>
       <c r="AM7" s="3"/>
       <c r="AP7">
         <v>1</v>
@@ -1246,117 +1625,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5" t="s">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5" t="s">
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="7" t="s">
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
       <c r="AJ8">
         <v>1</v>
       </c>
-      <c r="AK8" s="5"/>
+      <c r="AK8" s="10"/>
       <c r="AM8" s="3"/>
       <c r="AQ8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5" t="s">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5" t="s">
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="7" t="s">
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
       <c r="AJ9">
         <v>1</v>
       </c>
-      <c r="AK9" s="5"/>
+      <c r="AK9" s="10"/>
       <c r="AM9" s="3"/>
       <c r="AP9">
         <v>1</v>
@@ -1365,419 +1744,419 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5" t="s">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5" t="s">
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="7" t="s">
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
       <c r="AJ10">
         <v>1</v>
       </c>
-      <c r="AK10" s="5"/>
+      <c r="AK10" s="10"/>
       <c r="AM10" s="3"/>
       <c r="AQ10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5" t="s">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5" t="s">
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="7" t="s">
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
       <c r="AJ11">
         <v>1</v>
       </c>
-      <c r="AK11" s="5"/>
+      <c r="AK11" s="10"/>
       <c r="AM11" s="3"/>
       <c r="AQ11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
-      <c r="A12" t="s">
+    <row r="12" spans="1:44" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5" t="s">
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5" t="s">
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="7" t="s">
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12">
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="19">
         <v>1</v>
       </c>
-      <c r="AK12" s="5"/>
+      <c r="AK12" s="10"/>
       <c r="AM12" s="3"/>
-      <c r="AP12">
+      <c r="AP12" s="19">
         <v>1</v>
       </c>
-      <c r="AQ12" s="2" t="s">
+      <c r="AQ12" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
-      <c r="A13" t="s">
+    <row r="13" spans="1:44" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5" t="s">
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="7" t="s">
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13">
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="19">
         <v>1</v>
       </c>
-      <c r="AK13" s="5"/>
+      <c r="AK13" s="10"/>
       <c r="AM13" s="3"/>
-      <c r="AP13">
+      <c r="AP13" s="19">
         <v>1</v>
       </c>
-      <c r="AQ13" s="2" t="s">
+      <c r="AQ13" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
-      <c r="A14" t="s">
+    <row r="14" spans="1:44" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5" t="s">
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5" t="s">
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="7" t="s">
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14">
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="19">
         <v>1</v>
       </c>
-      <c r="AK14" s="5"/>
+      <c r="AK14" s="10"/>
       <c r="AM14" s="3"/>
-      <c r="AP14">
+      <c r="AP14" s="19">
         <v>1</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AQ14" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5" t="s">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5" t="s">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5" t="s">
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="7" t="s">
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
       <c r="AJ15">
         <v>1</v>
       </c>
-      <c r="AK15" s="5"/>
+      <c r="AK15" s="10"/>
       <c r="AM15" s="3"/>
       <c r="AQ15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5" t="s">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5" t="s">
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="7" t="s">
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
       <c r="AJ16">
         <v>1</v>
       </c>
-      <c r="AK16" s="5"/>
+      <c r="AK16" s="10"/>
       <c r="AM16" s="3"/>
       <c r="AP16">
         <v>1</v>
@@ -1786,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1799,51 +2178,51 @@
       <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5" t="s">
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
       <c r="AB17" t="s">
         <v>30</v>
       </c>
-      <c r="AC17" s="7" t="s">
+      <c r="AC17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
       <c r="AK17" t="s">
         <v>60</v>
       </c>
@@ -1852,210 +2231,210 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
-      <c r="A18" t="s">
+    <row r="18" spans="1:43" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5" t="s">
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5" t="s">
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5" t="s">
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" t="s">
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC18" s="7" t="s">
+      <c r="AC18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AK18" t="s">
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AK18" s="19" t="s">
         <v>60</v>
       </c>
       <c r="AM18" s="3"/>
-      <c r="AQ18" s="2" t="s">
+      <c r="AQ18" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="15" customHeight="1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:43" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5" t="s">
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="7" t="s">
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19">
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="19">
         <v>1</v>
       </c>
-      <c r="AK19" s="5" t="s">
+      <c r="AK19" s="10" t="s">
         <v>82</v>
       </c>
       <c r="AM19" s="3">
         <v>1</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" s="19">
         <v>1</v>
       </c>
-      <c r="AQ19" s="2" t="s">
+      <c r="AQ19" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
-      <c r="A20" t="s">
+    <row r="20" spans="1:43" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5" t="s">
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5" t="s">
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="7" t="s">
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20">
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="19">
         <v>1</v>
       </c>
-      <c r="AK20" s="5"/>
-      <c r="AL20">
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="19">
         <v>1</v>
       </c>
       <c r="AM20" s="3"/>
-      <c r="AP20">
+      <c r="AP20" s="19">
         <v>1</v>
       </c>
-      <c r="AQ20" s="2" t="s">
+      <c r="AQ20" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2065,48 +2444,48 @@
       <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5" t="s">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5" t="s">
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="7" t="s">
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
       <c r="AJ21">
         <v>1</v>
       </c>
@@ -2124,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2134,50 +2513,50 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5" t="s">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5" t="s">
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="7" t="s">
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
       <c r="AK22" t="s">
         <v>60</v>
       </c>
@@ -2192,64 +2571,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10">
         <v>0</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5">
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10">
         <v>0</v>
       </c>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="7" t="s">
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
       <c r="AM23" s="3"/>
       <c r="AQ23" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AM24" s="3"/>
       <c r="AQ24" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="X25" s="4"/>
     </row>
   </sheetData>
@@ -2382,9 +2761,887 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="AC3 AC4:AI22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE9385C-C2E8-450D-B660-BDCEEEACF889}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="C1" s="5">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5">
+        <v>5</v>
+      </c>
+      <c r="K1" s="5">
+        <v>4</v>
+      </c>
+      <c r="L1" s="5">
+        <v>3</v>
+      </c>
+      <c r="M1" s="5">
+        <v>2</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="8">
+        <v>10</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>